--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\MUN\Course\2021Winter\ENGI9875-Embedded-and-Real-Time-Operating-System-Design\ENGI9875\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117BAA69-53B3-43D5-B646-EED1BF91DE3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1BAE71-5999-4FF9-AA3A-C953840506E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{F55ACFCE-E556-4FDC-AC9E-85B6437ACEA3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="17472" xr2:uid="{F55ACFCE-E556-4FDC-AC9E-85B6437ACEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -256,6 +255,10 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>major and </a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
                   <a:t>minor faults</a:t>
@@ -1399,7 +1402,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,6 +1426,9 @@
       <c r="A2">
         <v>90</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>885</v>
       </c>
@@ -1430,6 +1436,9 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>94</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>960</v>
@@ -1439,6 +1448,9 @@
       <c r="A4">
         <v>98</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>1531</v>
       </c>
@@ -1446,6 +1458,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>99</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2185</v>
